--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_gcu_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_gcu_persistent.xlsx
@@ -757,49 +757,49 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1350456157814323</v>
+        <v>-0.1350456157814323</v>
       </c>
       <c r="D6" t="n">
-        <v>1.257520228398636</v>
+        <v>-1.257520228398636</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03187866994171053</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03984833742713816</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03984833742713816</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01017239069785181</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.004101513501587363</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.03376140394535807</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>-0.03187866994171053</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.03984833742713816</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03984833742713816</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.01017239069785181</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.004101513501587363</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.03376140394535807</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03187866994171053</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -810,37 +810,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03914929514492423</v>
+        <v>0.03914929514492423</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.327294412046128</v>
+        <v>0.327294412046128</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.579826190817287</v>
+        <v>2.579826190817287</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02332642453071585</v>
+        <v>0.02332642453071585</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03596137692228665</v>
+        <v>0.03596137692228665</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.787323786231058e-05</v>
+        <v>9.787323786231058e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03586350368442434</v>
+        <v>-0.03586350368442434</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.003973661814575813</v>
+        <v>0.003973661814575813</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.005097626513606957</v>
+        <v>0.005097626513606957</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.04806219906617392</v>
+        <v>0.04806219906617392</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02869080294753948</v>
+        <v>-0.02869080294753948</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -866,37 +866,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5520285846721388</v>
+        <v>0.5520285846721388</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1868422527273197</v>
+        <v>0.1868422527273197</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6751556805641581</v>
+        <v>0.6751556805641581</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01810298196338894</v>
+        <v>0.01810298196338894</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03375509801552457</v>
+        <v>0.03375509801552457</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001477944699542658</v>
+        <v>0.001477944699542658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03227715331598191</v>
+        <v>-0.03227715331598191</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.058517085713599</v>
+        <v>0.058517085713599</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01485054958802415</v>
+        <v>0.01485054958802415</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.09477276224800385</v>
+        <v>0.09477276224800385</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02582172265278553</v>
+        <v>-0.02582172265278553</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -922,37 +922,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006604066444466025</v>
+        <v>0.006604066444466025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06276934337166459</v>
+        <v>-0.06276934337166459</v>
       </c>
       <c r="D9" t="n">
-        <v>2.041128466528805</v>
+        <v>-2.041128466528805</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01303030469816418</v>
+        <v>0.01303030469816418</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03054389285003754</v>
+        <v>0.03054389285003754</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001494454865653823</v>
+        <v>0.001494454865653823</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02904943798438372</v>
+        <v>-0.02904943798438372</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.03498772200732382</v>
+        <v>0.03498772200732382</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.008266372174486496</v>
+        <v>0.008266372174486496</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07908042640508769</v>
+        <v>0.07908042640508769</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02323955038750698</v>
+        <v>-0.02323955038750698</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -978,37 +978,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2108553604813899</v>
+        <v>0.2108553604813899</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3169677417702105</v>
+        <v>0.3169677417702105</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7693672184070508</v>
+        <v>0.7693672184070508</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.009468888267492696</v>
+        <v>0.009468888267492696</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02816608745280265</v>
+        <v>0.02816608745280265</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002021593266857297</v>
+        <v>0.002021593266857297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02614449418594535</v>
+        <v>-0.02614449418594535</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02704627470244026</v>
+        <v>0.02704627470244026</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01511906898811404</v>
+        <v>0.01511906898811404</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2022561564908502</v>
+        <v>0.2022561564908502</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02091559534875628</v>
+        <v>-0.02091559534875628</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1034,37 +1034,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2237270682427142</v>
+        <v>0.2237270682427142</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1486956582917394</v>
+        <v>0.1486956582917394</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.015596132865691</v>
+        <v>1.015596132865691</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.006672380867554454</v>
+        <v>0.006672380867554454</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0261109557048149</v>
+        <v>0.0261109557048149</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.002580910937464083</v>
+        <v>0.002580910937464083</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02353004476735081</v>
+        <v>-0.02353004476735081</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.06145440592637014</v>
+        <v>0.06145440592637014</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02205666004647905</v>
+        <v>0.02205666004647905</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1434604155398254</v>
+        <v>0.1434604155398254</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01882403581388065</v>
+        <v>-0.01882403581388065</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1090,37 +1090,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1364083932921203</v>
+        <v>0.1364083932921203</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.172417481392691</v>
+        <v>0.172417481392691</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02661530808715962</v>
+        <v>0.02661530808715962</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004236724885499706</v>
+        <v>0.004236724885499706</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02409897221131012</v>
+        <v>0.02409897221131012</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.002921931920694384</v>
+        <v>0.002921931920694384</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02117704029061573</v>
+        <v>-0.02117704029061573</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.05428781634090444</v>
+        <v>0.05428781634090444</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.02192240895516161</v>
+        <v>0.02192240895516161</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08531079880714507</v>
+        <v>0.08531079880714507</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01694163223249259</v>
+        <v>-0.01694163223249259</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1146,37 +1146,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1795297876483403</v>
+        <v>0.1795297876483403</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2302794149923962</v>
+        <v>0.2302794149923962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1092026770950314</v>
+        <v>-0.1092026770950314</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.002353858215095737</v>
+        <v>0.002353858215095737</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0224300926513694</v>
+        <v>0.0224300926513694</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.003370756389815234</v>
+        <v>0.003370756389815234</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01905933626155416</v>
+        <v>-0.01905933626155416</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.06474685771214202</v>
+        <v>0.06474685771214202</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02780154664682612</v>
+        <v>0.02780154664682612</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1821023521044354</v>
+        <v>0.1821023521044354</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01524746900924333</v>
+        <v>-0.01524746900924333</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1202,37 +1202,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1643765716079902</v>
+        <v>0.1643765716079902</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1664851371815251</v>
+        <v>0.1664851371815251</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5643714533386629</v>
+        <v>0.5643714533386629</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0007927994011941199</v>
+        <v>0.0007927994011941199</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02093510045423396</v>
+        <v>0.02093510045423396</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00378169781883521</v>
+        <v>0.00378169781883521</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01715340263539875</v>
+        <v>-0.01715340263539875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.06659684187138569</v>
+        <v>0.06659684187138569</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03068599554338776</v>
+        <v>0.03068599554338776</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1524231482621476</v>
+        <v>0.1524231482621476</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.013722722108319</v>
+        <v>-0.013722722108319</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1258,37 +1258,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1503376849371436</v>
+        <v>0.1503376849371436</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1730011368437897</v>
+        <v>0.1730011368437897</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.367516278822819</v>
+        <v>0.367516278822819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0005076468892884003</v>
+        <v>-0.0005076468892884003</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01959560440303694</v>
+        <v>0.01959560440303694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.004157542031178069</v>
+        <v>0.004157542031178069</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01543806237185887</v>
+        <v>-0.01543806237185887</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.06295529598007678</v>
+        <v>0.06295529598007678</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.03237079700965444</v>
+        <v>0.03237079700965444</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1240913866762304</v>
+        <v>0.1240913866762304</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0123504498974871</v>
+        <v>-0.0123504498974871</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1528453798367549</v>
+        <v>0.1528453798367549</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1703491457348528</v>
+        <v>0.1703491457348528</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06935644740985675</v>
+        <v>0.06935644740985675</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001558050365090238</v>
+        <v>-0.001558050365090238</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01843391161544294</v>
+        <v>0.01843391161544294</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004539655480769956</v>
+        <v>0.004539655480769956</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01389425613467299</v>
+        <v>-0.01389425613467299</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.06668324587472195</v>
+        <v>0.06668324587472195</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.03536242770179784</v>
+        <v>0.03536242770179784</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1307408923472365</v>
+        <v>0.1307408923472365</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01111540490773839</v>
+        <v>-0.01111540490773839</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1370,37 +1370,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1411938909987489</v>
+        <v>0.1411938909987489</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.147650718515287</v>
+        <v>0.147650718515287</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1570406718651145</v>
+        <v>0.1570406718651145</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002432335547869379</v>
+        <v>-0.002432335547869379</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01739747072947252</v>
+        <v>0.01739747072947252</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.004892640208266828</v>
+        <v>0.004892640208266828</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01250483052120569</v>
+        <v>-0.01250483052120569</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06605621383106733</v>
+        <v>0.06605621383106733</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0371903361975655</v>
+        <v>0.0371903361975655</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.09962467685672162</v>
+        <v>0.09962467685672162</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01000386441696455</v>
+        <v>-0.01000386441696455</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1426,37 +1426,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1333291746454374</v>
+        <v>0.1333291746454374</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1459918711511953</v>
+        <v>0.1459918711511953</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2464397102257031</v>
+        <v>0.2464397102257031</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003152466506707155</v>
+        <v>-0.003152466506707155</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01648031061396554</v>
+        <v>0.01648031061396554</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005225963144880422</v>
+        <v>0.005225963144880422</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01125434746908512</v>
+        <v>-0.01125434746908512</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06406339965264808</v>
+        <v>0.06406339965264808</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.03890408831841212</v>
+        <v>0.03890408831841212</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09265137618989551</v>
+        <v>0.09265137618989551</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.009003477975268096</v>
+        <v>-0.009003477975268096</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1482,37 +1482,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1285053736020395</v>
+        <v>0.1285053736020395</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1332457626751168</v>
+        <v>0.1332457626751168</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1099997301075887</v>
+        <v>0.1099997301075887</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003736824607409983</v>
+        <v>-0.003736824607409983</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01567613930106213</v>
+        <v>0.01567613930106213</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005547226578885521</v>
+        <v>0.005547226578885521</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01012891272217661</v>
+        <v>-0.01012891272217661</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.06403157211847425</v>
+        <v>0.06403157211847425</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.04062547913149409</v>
+        <v>0.04062547913149409</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.08635407853903619</v>
+        <v>0.08635407853903619</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008103130177741287</v>
+        <v>-0.008103130177741287</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1538,37 +1538,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1210315154813151</v>
+        <v>0.1210315154813151</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1247910728018232</v>
+        <v>0.1247910728018232</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04249823140982988</v>
+        <v>0.04249823140982988</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004213077244033601</v>
+        <v>-0.004213077244033601</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01496582681754776</v>
+        <v>0.01496582681754776</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.005849805367588809</v>
+        <v>0.005849805367588809</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009116021449958947</v>
+        <v>-0.009116021449958947</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.06297526586742362</v>
+        <v>0.06297526586742362</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.04193752826325364</v>
+        <v>0.04193752826325364</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.07123661041113362</v>
+        <v>0.07123661041113362</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.007292817159967158</v>
+        <v>-0.007292817159967158</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1594,37 +1594,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1152176798946105</v>
+        <v>0.1152176798946105</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1195077046963581</v>
+        <v>0.1195077046963581</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06548628988608998</v>
+        <v>0.06548628988608998</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004594803429828322</v>
+        <v>-0.004594803429828322</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01434226887228839</v>
+        <v>0.01434226887228839</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006137849567325335</v>
+        <v>0.006137849567325335</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008204419304963052</v>
+        <v>-0.008204419304963052</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.06225696388899345</v>
+        <v>0.06225696388899345</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.04325515638393023</v>
+        <v>0.04325515638393023</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.06482788900005601</v>
+        <v>0.06482788900005601</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.006563535443970443</v>
+        <v>-0.006563535443970443</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1650,37 +1650,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1098783957248901</v>
+        <v>0.1098783957248901</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1102433760368285</v>
+        <v>0.1102433760368285</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04154865283154144</v>
+        <v>0.04154865283154144</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004895761305726096</v>
+        <v>-0.004895761305726096</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01379652293110431</v>
+        <v>0.01379652293110431</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00641254555663756</v>
+        <v>0.00641254555663756</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007383977374466747</v>
+        <v>-0.007383977374466747</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.06144796253152554</v>
+        <v>0.06144796253152554</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.04437318322433081</v>
+        <v>0.04437318322433081</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05788357939988355</v>
+        <v>0.05788357939988355</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005907181899573398</v>
+        <v>-0.005907181899573398</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -1706,37 +1706,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1043758446578902</v>
+        <v>0.1043758446578902</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1046601341292712</v>
+        <v>0.1046601341292712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0172809277787086</v>
+        <v>-0.0172809277787086</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005128982184640408</v>
+        <v>-0.005128982184640408</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01331906480530236</v>
+        <v>0.01331906480530236</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.006673485168282286</v>
+        <v>0.006673485168282286</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006645579637020073</v>
+        <v>-0.006645579637020073</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.06044372672378513</v>
+        <v>0.06044372672378513</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.04532818511552306</v>
+        <v>0.04532818511552306</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.05076899979759597</v>
+        <v>0.05076899979759597</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005316463709616059</v>
+        <v>-0.005316463709616059</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -1762,37 +1762,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.09973321535687781</v>
+        <v>0.09973321535687781</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0995739961121596</v>
+        <v>0.0995739961121596</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03848754013826547</v>
+        <v>-0.03848754013826547</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005303154626908904</v>
+        <v>-0.005303154626908904</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01290383987999255</v>
+        <v>0.01290383987999255</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00692281820667448</v>
+        <v>0.00692281820667448</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005981021673318067</v>
+        <v>-0.005981021673318067</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.05984562255144945</v>
+        <v>0.05984562255144945</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.04623960614613489</v>
+        <v>0.04623960614613489</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.04552103687623071</v>
+        <v>0.04552103687623071</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004784817338654454</v>
+        <v>-0.004784817338654454</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -1818,37 +1818,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.09533605679307228</v>
+        <v>0.09533605679307228</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.09367454466145249</v>
+        <v>0.09367454466145249</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0475268209782658</v>
+        <v>-0.0475268209782658</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005426961791747276</v>
+        <v>-0.005426961791747276</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01254407785464342</v>
+        <v>0.01254407785464342</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.007161158348657161</v>
+        <v>0.007161158348657161</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005382919505986261</v>
+        <v>-0.005382919505986261</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.05917315727692399</v>
+        <v>0.05917315727692399</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.04701002283986057</v>
+        <v>0.04701002283986057</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.03978104884593449</v>
+        <v>0.03978104884593449</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.004306335604789008</v>
+        <v>-0.004306335604789008</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -1874,37 +1874,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.09116430919729837</v>
+        <v>0.09116430919729837</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08934586912246788</v>
+        <v>0.08934586912246788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0735440459904671</v>
+        <v>-0.0735440459904671</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00550784925057855</v>
+        <v>-0.00550784925057855</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01223369667703804</v>
+        <v>0.01223369667703804</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.007389069121650407</v>
+        <v>0.007389069121650407</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004844627555387634</v>
+        <v>-0.004844627555387634</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.05844810876737959</v>
+        <v>0.05844810876737959</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04768771518537362</v>
+        <v>0.04768771518537362</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.03536567347481225</v>
+        <v>0.03536567347481225</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003875702044310108</v>
+        <v>-0.003875702044310108</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -1930,37 +1930,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.08750263012996704</v>
+        <v>0.08750263012996704</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.08519485117943</v>
+        <v>0.08519485117943</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09821152508824255</v>
+        <v>-0.09821152508824255</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00555149560653115</v>
+        <v>-0.00555149560653115</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0119679904968242</v>
+        <v>0.0119679904968242</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.007607825696975325</v>
+        <v>0.007607825696975325</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004360164799848871</v>
+        <v>-0.004360164799848871</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0578716906307255</v>
+        <v>0.0578716906307255</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.04830141138646791</v>
+        <v>0.04830141138646791</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.03150358854509236</v>
+        <v>0.03150358854509236</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003488131839879097</v>
+        <v>-0.003488131839879097</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -1986,37 +1986,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08411279527082778</v>
+        <v>0.08411279527082778</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.08135031402267051</v>
+        <v>0.08135031402267051</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1102602067140359</v>
+        <v>-0.1102602067140359</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005563258613215303</v>
+        <v>-0.005563258613215303</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01174225600501638</v>
+        <v>0.01174225600501638</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.007818107685152394</v>
+        <v>0.007818107685152394</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003924148319863984</v>
+        <v>-0.003924148319863984</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.05732022007752875</v>
+        <v>0.05732022007752875</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.04883086855456945</v>
+        <v>0.04883086855456945</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.02754577219505577</v>
+        <v>0.02754577219505577</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003139318655891188</v>
+        <v>-0.003139318655891188</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2042,37 +2042,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.08099980353880201</v>
+        <v>0.08099980353880201</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.07805683761653277</v>
+        <v>0.07805683761653277</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1222035640155534</v>
+        <v>-0.1222035640155534</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005547703438627745</v>
+        <v>-0.005547703438627745</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.01155234068187698</v>
+        <v>0.01155234068187698</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.008020607193999399</v>
+        <v>0.008020607193999399</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003531733487877586</v>
+        <v>-0.003531733487877586</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.05681473233707885</v>
+        <v>0.05681473233707885</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.04929858554032882</v>
+        <v>0.04929858554032882</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0243138107083513</v>
+        <v>0.0243138107083513</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002825386790302069</v>
+        <v>-0.002825386790302069</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2098,37 +2098,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.07820261533722633</v>
+        <v>0.07820261533722633</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0749722405772706</v>
+        <v>0.0749722405772706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1368950555225044</v>
+        <v>-0.1368950555225044</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005508633343932007</v>
+        <v>-0.005508633343932007</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01139467387143229</v>
+        <v>0.01139467387143229</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.008216113732342465</v>
+        <v>0.008216113732342465</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003178560139089828</v>
+        <v>-0.003178560139089828</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.05634921518822118</v>
+        <v>0.05634921518822118</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.04970895433276952</v>
+        <v>0.04970895433276952</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.02144545208159639</v>
+        <v>0.02144545208159639</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002542848111271862</v>
+        <v>-0.002542848111271862</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2154,37 +2154,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0756469717689023</v>
+        <v>0.0756469717689023</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.07229885600601244</v>
+        <v>0.07229885600601244</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1476680114800465</v>
+        <v>-0.1476680114800465</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005449459530804775</v>
+        <v>-0.005449459530804775</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01126593528694557</v>
+        <v>0.01126593528694557</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.008405231161764721</v>
+        <v>0.008405231161764721</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002860704125180845</v>
+        <v>-0.002860704125180845</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.05591344981200485</v>
+        <v>0.05591344981200485</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.05006641999644443</v>
+        <v>0.05006641999644443</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.01879787142489607</v>
+        <v>0.01879787142489607</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002288563300144676</v>
+        <v>-0.002288563300144676</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2210,37 +2210,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.07333609594946265</v>
+        <v>0.07333609594946265</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.06990177781719338</v>
+        <v>0.06990177781719338</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1547657807835983</v>
+        <v>-0.1547657807835983</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005373086809789551</v>
+        <v>-0.005373086809789551</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01116320511430114</v>
+        <v>0.01116320511430114</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.008588571401638377</v>
+        <v>0.008588571401638377</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002574633712662761</v>
+        <v>-0.002574633712662761</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.05553202658481014</v>
+        <v>0.05553202658481014</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.05038047358322503</v>
+        <v>0.05038047358322503</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01648720792672353</v>
+        <v>0.01648720792672353</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.002059706970130208</v>
+        <v>-0.002059706970130208</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2266,37 +2266,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.07124708263096186</v>
+        <v>0.07124708263096186</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06770737944847854</v>
+        <v>0.06770737944847854</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1618107164982878</v>
+        <v>-0.1618107164982878</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005282043959650973</v>
+        <v>-0.005282043959650973</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.01108385944961227</v>
+        <v>0.01108385944961227</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.008766689108215781</v>
+        <v>0.008766689108215781</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002317170341396484</v>
+        <v>-0.002317170341396484</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.05518104019453839</v>
+        <v>0.05518104019453839</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.05065245612869368</v>
+        <v>0.05065245612869368</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01440533112515988</v>
+        <v>0.01440533112515988</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001853736273117188</v>
+        <v>-0.001853736273117188</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
